--- a/docs/odh/odh-SupervisoryLevel-model.xlsx
+++ b/docs/odh/odh-SupervisoryLevel-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="106">
   <si>
     <t>Path</t>
   </si>
@@ -321,10 +321,19 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
+    <t>odh-SupervisoryLevel-model.interpretation</t>
+  </si>
+  <si>
+    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
     <t>odh-SupervisoryLevel-model.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -332,19 +341,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0883335
-</t>
-  </si>
-  <si>
-    <t>odh-SupervisoryLevel-model.interpretation</t>
-  </si>
-  <si>
-    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0420833
 </t>
   </si>
 </sst>
@@ -494,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1737,7 +1733,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1749,13 +1745,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1782,16 +1778,14 @@
         <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1812,7 +1806,7 @@
         <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>36</v>
@@ -1823,7 +1817,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1834,7 +1828,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1846,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>104</v>
@@ -1879,15 +1873,17 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
       </c>
@@ -1901,13 +1897,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
